--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/da_DK.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/da_DK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5180">
   <si>
     <t>translation_group</t>
   </si>
@@ -15511,12 +15511,6 @@
   </si>
   <si>
     <t xml:space="preserve"> underretninger</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15903,17 +15897,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54560,18 +54554,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5164</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5165</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54581,10 +54567,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5166</v>
+        <v>5164</v>
       </c>
       <c r="D2763" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54595,10 +54581,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
       <c r="D2764" t="s">
-        <v>5169</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54609,10 +54595,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5170</v>
+        <v>5168</v>
       </c>
       <c r="D2765" t="s">
-        <v>5171</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54623,10 +54609,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5172</v>
+        <v>5170</v>
       </c>
       <c r="D2766" t="s">
-        <v>5173</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54637,10 +54623,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5174</v>
+        <v>5172</v>
       </c>
       <c r="D2767" t="s">
-        <v>5175</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54651,10 +54637,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5176</v>
+        <v>5174</v>
       </c>
       <c r="D2768" t="s">
-        <v>5177</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54665,10 +54651,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5178</v>
+        <v>5176</v>
       </c>
       <c r="D2769" t="s">
-        <v>5179</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54707,11 +54693,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5180</v>
+        <v>5178</v>
       </c>
       <c r="D2772" t="s">
-        <v>5181</v>
-      </c>
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/da_DK.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/da_DK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5854">
   <si>
     <t>translation_group</t>
   </si>
@@ -10073,7 +10073,7 @@
     <t>Seo-indstillinger</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Udfyld felterne for maksimale resultater, når du finder dit websted i søgemaskiner.</t>
@@ -16996,6 +16996,601 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Velkommen til Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Brug Microweber til at opbygge dit websted, onlinebutik eller blog.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Oprette og redigere indhold, sælge online, administrere ordrer og kunder.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Fjerne</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Forladt vogn</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Du bruger denne skabelon.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Ændringen påvirker kun den aktuelle side.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Tillad flere skabeloner</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Hvis du tillader flere skabeloner, kan du bruge forskellige skabeloner, når du opretter nye sider.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>System-e-mail-webstedsindstillinger</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Lever meddelelser relateret til ny registrering, nulstilling af adgangskode og andre systemfunktioner.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Fra e-mail-adresse</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Eks. Dit webstedsnavn</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Generelle e-mail-udbyderindstillinger</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Opret din e-mail-udbyder.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Den generelle e-mail-udbyder leverer alle meddelelser, der er relateret til hjemmesiden. Inklusive systembeskeder og kontaktformularbeskeder.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Hjemmesidelogo</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Vælg et logo til dit websted.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Hjemmeside Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Ændrer standardsprog ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Ryd cache ..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Installer Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Registreringsbrugere kan automatisk modtage en automatisk e-mail fra dig. Se indstillingerne, og send dine beskeder.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Send e-mail om ny brugerregistrering til admin-brugere</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Ønsker du, at administratoren modtager en e-mail, når den nye bruger er registreret?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber er gratis open source-træk og slip-webstedsbygger og CMS. Det er under MIT-licens, og vi bruger Laravel PHP-rammer</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>En skyder</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Forsendelse til adresse</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Afhentning fra adresse</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Globale indstillinger</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>E-mail-integrationer</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Du har ikke system-e-mail og smtp-opsætning.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Konfigurer dine systemindstillinger her.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Globale kontaktformularindstillinger</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Indstillinger for afsendelse af e-mail</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Global afsender</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Brug tilpassede afsenderindstillinger</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Brug tilpassede afsenderindstillinger til de globale kontaktformularer.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Som standard bruger vi e-mail-indstillinger for websidesystemet.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Du kan ændre systemets e-mail-indstillinger her.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Globale modtagere</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Send kontaktformulardata til globale modtagere, når de sendes</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Til e-mail-adresser</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Modtagernes e-mail-adresse adskilt med koma.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Kontakt din hostingudbyder for at aktivere PHP SOAP-udvidelse.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elementer</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 måneder siden</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Fjern logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Fjern favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Brugerdefinerede</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>ProdukterV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Tidslinje</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Hvid etiket WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Indholdsversioner</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Standardlayouter og -elementer</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Pileliste</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Kontrolleret liste</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Baggrundstekst</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Titel med tekst</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Ikon med tekst</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>To tekstkolonner</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>To tekstkolonner med ikon og titel</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Billede med titel og tekst</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Tekst med billede og titel</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Aktivér kommentarer</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Captcha-indstillinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opsæt dine captcha-præferencer fra </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Nuværende kontaktformularindstillinger</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Kontaktformularens navn</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Hvad hedder denne kontaktformular?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Modtagere</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Send kontaktformulardata til brugerdefinerede modtagere, når de sendes</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Brug indstillinger for tilpassede modtagere til den aktuelle kontaktformular.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Som standard bruger vi kontaktformularens globale indstillinger.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Du kan ændre kontaktformularens globale indstillinger her.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Svar automatisk på brugeren</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Aktiver meddelelse om automatisk svar til brugeren</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Tillad brugere at modtage "Tak e-mails efter abonnement."</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Autosvar motiv</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Autosvar tilpasset afsender</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Brug tilpassede afsenderindstillinger til den aktuelle kontaktformular.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Autosvar fra e-mail-adresse</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Svar automatisk fra navn</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Svar automatisk på e-mail</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Når brugeren modtager meddelelsen om automatisk svar, kan de svare tilbage for at svare på e-mail.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Autosvar e-mail-vedhæftede filer</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Hvis du vil vedhæfte og billeder, skal du uploade dem til galleriet fra 'Tilføj medie'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Du har endnu ingen indlæg</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Opret dit første indlæg lige nu.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Opret et indlæg</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Sådan skriver du produktbeskrivelser, der sælger
+                                                    En af de bedste ting, du kan gøre for at gøre din butik vellykket, er at bruge lidt tid på at skrive gode produktbeskrivelser. Du vil give detaljerede, men kortfattede oplysninger, der vil lokke potentielle kunder til at købe.
+                                                    Tænk som en forbruger
+                                                    Tænk over, hvad du som forbruger vil have at vide, og inkluder derefter disse funktioner i din beskrivelse. Til tøj: materialer og pasform. Til mad: ingredienser og hvordan det blev tilberedt. Kugler er dine venner, når du angiver
+                                                   -funktioner - prøv at
+                                                            begræns hver enkelt til 5-8 ord.</t>
   </si>
 </sst>
 </file>
@@ -17334,7 +17929,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67642,6 +68237,1757 @@
         <v>3591</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5659</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5660</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5661</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5662</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5663</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5664</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5665</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5666</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5667</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5668</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5669</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5670</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5671</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5672</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5673</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5674</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5675</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5677</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5678</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5679</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5680</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5681</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5682</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5683</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5684</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5685</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5686</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5687</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5688</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5692</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5694</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5695</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5696</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5697</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5698</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5699</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5700</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5701</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5702</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5703</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5710</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5724</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5728</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5729</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5744</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5746</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5750</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5752</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5754</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5756</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5758</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5759</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5760</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5762</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5764</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5766</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5768</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3292</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5772</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5773</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5800</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4898</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5815</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5821</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3100</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>3094</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5851</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5853</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/da_DK.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/da_DK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6140">
   <si>
     <t>translation_group</t>
   </si>
@@ -17591,6 +17591,864 @@
                                                     Tænk over, hvad du som forbruger vil have at vide, og inkluder derefter disse funktioner i din beskrivelse. Til tøj: materialer og pasform. Til mad: ingredienser og hvordan det blev tilberedt. Kugler er dine venner, når du angiver
                                                    -funktioner - prøv at
                                                             begræns hver enkelt til 5-8 ord.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Admin sprog</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Begrænse</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Kode Editor</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>titler</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Titler 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Titler 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Titler 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Titler 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Titler 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Titler 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Titler 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Titler 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>tekstblok</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Tekstblok 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Tekstblok 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Tekstblok 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Tekstblok 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Tekstblok 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Tekstblok 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Tekstblok 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Tekstblok 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Tekstblok 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Tekstblok 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Tekstblok 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Tekstblok 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Tekstblok 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Tekstblok 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Tekstblok 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>funktioner</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Funktioner 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Funktioner 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Funktioner 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Funktioner 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>gitter</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>sidefødder</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Sidefødder 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Sidefødder 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Sidefødder 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Sidefødder 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>prisfastsættelse</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Pris 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Standard layouts</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Intet indhold her</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Brugerdefinerede felter gemmes</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Eksisterende felter</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Vælg mellem dine eksisterende felter nedenfor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tilføj nye felter</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Tilføj nyt brugerdefineret felt fra listen nedenfor</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Dine marker</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Liste over dine tilføjede brugerdefinerede felter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gentag lodret </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Fontfamilie</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Overlejring</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Blandingstilstand</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Beholder</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Containertype</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animationer</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Genindlæsning af stilarter</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Links til</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Forhåndsvisningspakke</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Brug</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Nuværende</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Genbestil</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Browser omdirigering</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Uafhængig opdatering</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Du skal bruge en licensnøgle for at installere denne pakke</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Denne pakke er premium, og du skal have en licensnøgle for at installere den</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Du skal bruge licensnøgle</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Licens aktiveret</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Genindlæser siden</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Licens ikke aktiveret</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Systemopdateringer</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Se efter systemopdateringer</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Tilbage til listen</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Kategorien skal have et navn</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Er kategori skjult?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Hvis du indstiller dette til JA, vil denne kategori blive skjult fra hjemmesiden</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Omtale</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Din vogn er tom.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Resultater fundet</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Hvis du vælger Procenten fra det valgte felt, vil den automatisk blive beregnet ud fra produktets pris og tilbudspris.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Gå til kassen</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Viser</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>resultat(er)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Sidetitel - højre brødkrumme</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Sidetitel - venstre brødkrumme</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Vilkår for brug</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Levering og returnering</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Omkring 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Omkring 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Omkring 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Hjem 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Hjem 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Du skal klikke på knappen Anvend skabelon for at ændre din skabelon</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Søg efter kriterier</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Dato fra</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Indstil ordrerne fra dato</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Date til</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Indstil ordrerne til dato</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Ordrebeløb fra</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Vis ordren med minimumsbeløb</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Ordrebeløb til</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Vis ordren med maksimumbeløb</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Søg efter produkter...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Betalingsstatus</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Gratis søgning på telefon, navn, email osv...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Indsend dette kriterium</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Nulstil filter</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Eksporter alt</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Vælg sortering</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Bestillingsdato</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Ny &gt; Gammel]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Gamle &gt; Ny]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Høj &gt; Lav]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Lav &gt; Høj]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Ordren gennemført</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>oversættelser fra flersprogsmodulet er fundet i din database.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Advarsel! Ændring af standardsproget kan ødelægge oversættelser på dit websted.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Er du sikker på, at du vil fortsætte?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Advarsel! Det skiftende standardsprog vil måske ødelægge dit websted.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Forsendelsesdetaljer</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>ordren er ikke afsluttet endnu</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>ordren er gennemført</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Oprettet kl</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Opdateret kl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurtigt kig </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Erstat sprogværdier</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Oversættelser importeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oversættelser ikke fundet i databasen. Ønsker du at importere oversættelser? </t>
   </si>
 </sst>
 </file>
@@ -17614,10 +18472,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17628,7 +18483,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17929,7 +18784,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69991,8 +70846,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5855</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5857</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5858</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5859</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5880</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5884</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5888</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5890</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5892</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>5923</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5924</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5925</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5926</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5927</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5940</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5941</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>5943</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5944</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5945</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5946</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5947</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5948</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5949</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5951</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5952</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5953</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5955</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5957</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>5959</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>5961</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>5962</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>5963</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>5964</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>5965</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>5967</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>5969</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>5970</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>5971</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>5973</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>5974</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>5975</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>5977</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>5979</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>5983</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>5991</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>5993</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2701</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6013</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6022</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5851</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6031</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6032</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6033</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6032</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6034</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6035</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6047</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6049</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6051</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6054</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6076</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6077</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>3925</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6090</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6091</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6092</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6098</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6109</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6110</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6116</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6117</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6118</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6120</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6121</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4305</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6125</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6127</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6128</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6129</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6130</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6131</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6134</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6135</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6136</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6137</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6138</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6139</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70004,5 +73493,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/da_DK.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/da_DK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5956">
   <si>
     <t>translation_group</t>
   </si>
@@ -17007,13 +17007,13 @@
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Brug Microweber til at opbygge dit websted, onlinebutik eller blog.</t>
+    <t>Brug Microweber til at bygge din hjemmeside, onlinebutik eller blog.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>Oprette og redigere indhold, sælge online, administrere ordrer og kunder.</t>
+    <t>Opret og rediger indhold, sælg online, administrer ordrer og kunder.</t>
   </si>
   <si>
     <t>Remove</t>
@@ -17025,9 +17025,6 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Forladt vogn</t>
-  </si>
-  <si>
     <t>You are using this template.</t>
   </si>
   <si>
@@ -17037,7 +17034,7 @@
     <t>The change will affect only the current page.</t>
   </si>
   <si>
-    <t>Ændringen påvirker kun den aktuelle side.</t>
+    <t>Ændringen vil kun påvirke den aktuelle side.</t>
   </si>
   <si>
     <t>Allow multiple templates</t>
@@ -17049,61 +17046,61 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Hvis du tillader flere skabeloner, kan du bruge forskellige skabeloner, når du opretter nye sider.</t>
+    <t>Hvis du tillader flere skabeloner, vil du være i stand til at bruge forskellige skabeloner, når du opretter en ny side.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>System-e-mail-webstedsindstillinger</t>
+    <t>Systemindstillinger for e-mail-websted</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Lever meddelelser relateret til ny registrering, nulstilling af adgangskode og andre systemfunktioner.</t>
+    <t>Lever beskeder relateret til ny registrering, nulstilling af adgangskode og andre systemfunktioner.</t>
   </si>
   <si>
     <t>From e-mail address</t>
   </si>
   <si>
-    <t>Fra e-mail-adresse</t>
+    <t>Fra e-mailadresse</t>
   </si>
   <si>
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Eks. Dit webstedsnavn</t>
+    <t>Eks. Dit websteds navn</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>Generelle e-mail-udbyderindstillinger</t>
+    <t>Generelle indstillinger for e-mailudbyder</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>Opret din e-mail-udbyder.</t>
+    <t>Konfigurer din e-mail-udbyder.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Den generelle e-mail-udbyder leverer alle meddelelser, der er relateret til hjemmesiden. Inklusive systembeskeder og kontaktformularbeskeder.</t>
+    <t>Den generelle e-mail-udbyder vil levere alle meddelelser relateret til hjemmesiden. Herunder systembeskeder og kontaktformularbeskeder.</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Hjemmesidelogo</t>
+    <t>Hjemmeside logo</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>Vælg et logo til dit websted.</t>
+    <t>Vælg et logo til din hjemmeside.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17118,13 +17115,13 @@
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Ændrer standardsprog ..</t>
+    <t>Ændring af standardsprog..</t>
   </si>
   <si>
     <t>Clear cache..</t>
   </si>
   <si>
-    <t>Ryd cache ..</t>
+    <t>Ryd cache..</t>
   </si>
   <si>
     <t>Install Multilanguage Module</t>
@@ -17136,28 +17133,31 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
+    <t>Brugere kan registrere sig med midlertidige e-mails som - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Registreringsbrugere kan automatisk modtage en automatisk e-mail fra dig. Se indstillingerne, og send dine beskeder.</t>
+    <t>Registreringsbrugere kan automatisk modtage en automatisk e-mail fra dig. Se indstillingerne og send dine beskeder.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Send e-mail om ny brugerregistrering til admin-brugere</t>
+    <t>Send e-mail ved ny brugerregistrering til admin-brugere</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Ønsker du, at administratoren modtager en e-mail, når den nye bruger er registreret?</t>
+    <t>Ønsker du, at administratorer modtager en e-mail, når ny bruger er registreret?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber er gratis open source-træk og slip-webstedsbygger og CMS. Det er under MIT-licens, og vi bruger Laravel PHP-rammer</t>
+    <t>Microweber er gratis open source træk og slip hjemmesidebygger og CMS. Det er under MIT-licens, og vi bruger Laravel PHP-ramme</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17187,13 +17187,13 @@
     <t>E-mail Integrations</t>
   </si>
   <si>
-    <t>E-mail-integrationer</t>
+    <t>E-mail integrationer</t>
   </si>
   <si>
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Du har ikke system-e-mail og smtp-opsætning.</t>
+    <t>Du har ikke system e-mail og smtp opsætning.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
@@ -17211,7 +17211,7 @@
     <t>E-mail sending options</t>
   </si>
   <si>
-    <t>Indstillinger for afsendelse af e-mail</t>
+    <t>Valgmuligheder for afsendelse af e-mail</t>
   </si>
   <si>
     <t>Global sender</t>
@@ -17235,7 +17235,7 @@
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Som standard bruger vi e-mail-indstillinger for websidesystemet.</t>
+    <t>Som standard vil vi bruge webstedets e-mail-indstillinger.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
@@ -17253,25 +17253,25 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Send kontaktformulardata til globale modtagere, når de sendes</t>
+    <t>Send kontaktformulardata til globale modtagere, når de indsendes</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
   </si>
   <si>
-    <t>Til e-mail-adresser</t>
+    <t>Til e-mailadresser</t>
   </si>
   <si>
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Modtagernes e-mail-adresse adskilt med koma.</t>
+    <t>E-mail adresse på modtagere adskilt med koma.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Kontakt din hostingudbyder for at aktivere PHP SOAP-udvidelse.</t>
+    <t>Kontakt din hostingudbyder for at aktivere PHP SOAP-udvidelsen.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17325,15 +17325,18 @@
     <t>White label WHMCS</t>
   </si>
   <si>
-    <t>Hvid etiket WHMCS</t>
-  </si>
-  <si>
     <t>Number of the visible testimonials</t>
   </si>
   <si>
+    <t>Antal synlige vidnesbyrd</t>
+  </si>
+  <si>
     <t>Module template has changed</t>
   </si>
   <si>
+    <t>Modulskabelonen er ændret</t>
+  </si>
+  <si>
     <t>Content versions</t>
   </si>
   <si>
@@ -17346,19 +17349,19 @@
     <t>Default layouts and elements</t>
   </si>
   <si>
-    <t>Standardlayouter og -elementer</t>
+    <t>Standardlayouts og -elementer</t>
   </si>
   <si>
     <t>Arrows List</t>
   </si>
   <si>
-    <t>Pileliste</t>
+    <t>Pile liste</t>
   </si>
   <si>
     <t>Checked List</t>
   </si>
   <si>
-    <t>Kontrolleret liste</t>
+    <t>Afkrydset liste</t>
   </si>
   <si>
     <t>Background Text</t>
@@ -17409,7 +17412,7 @@
     <t>Enable comments</t>
   </si>
   <si>
-    <t>Aktivér kommentarer</t>
+    <t>Aktiver kommentarer</t>
   </si>
   <si>
     <t>Captcha settings</t>
@@ -17421,28 +17424,31 @@
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Opsæt dine captcha-præferencer fra </t>
+    <t xml:space="preserve">Indstil dine captcha-præferencer fra </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Tilføj/Rediger felter i formularen ved hjælp af de brugerdefinerede felter</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
-    <t>Nuværende kontaktformularindstillinger</t>
+    <t>Aktuelle kontaktformularindstillinger</t>
   </si>
   <si>
     <t>Contact form name</t>
   </si>
   <si>
-    <t>Kontaktformularens navn</t>
+    <t>Navn på kontaktformular</t>
   </si>
   <si>
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>Hvad hedder denne kontaktformular?</t>
+    <t>Hvad er navnet på denne kontaktformular?</t>
   </si>
   <si>
     <t>Receivers</t>
@@ -17454,19 +17460,19 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Send kontaktformulardata til brugerdefinerede modtagere, når de sendes</t>
+    <t>Send kontaktformulardata til brugerdefinerede modtagere, når de indsendes</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Brug indstillinger for tilpassede modtagere til den aktuelle kontaktformular.</t>
+    <t>Brug brugerdefinerede modtagerindstillinger til den aktuelle kontaktformular.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Som standard bruger vi kontaktformularens globale indstillinger.</t>
+    <t>Som standard vil vi bruge kontaktformularens globale indstillinger.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
@@ -17478,30 +17484,30 @@
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Svar automatisk på brugeren</t>
+    <t>Autosvar besked til bruger</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Aktiver meddelelse om automatisk svar til brugeren</t>
+    <t>Aktiver automatisk svarmeddelelse til bruger</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Tillad brugere at modtage "Tak e-mails efter abonnement."</t>
+    <t>Tillad brugere at modtage "Tak-e-mails efter abonnement."</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Autosvar motiv</t>
-  </si>
-  <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
+    <t>Autosvar giver dig mulighed for at konfigurere automatiske svar på indgående e-mail</t>
+  </si>
+  <si>
     <t>Auto respond message</t>
   </si>
   <si>
@@ -17523,43 +17529,43 @@
     <t>Auto respond from e-mail address</t>
   </si>
   <si>
-    <t>Autosvar fra e-mail-adresse</t>
+    <t>Autosvar fra e-mailadresse</t>
   </si>
   <si>
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Svar automatisk fra navn</t>
+    <t>Autosvar fra navn</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Svar automatisk på e-mail</t>
+    <t>Autosvar svar på e-mail</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Når brugeren modtager meddelelsen om automatisk svar, kan de svare tilbage for at svare på e-mail.</t>
+    <t>Når brugeren modtager autosvar-meddelelsen, kan de svare tilbage for at svare på e-mail.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Autosvar e-mail-vedhæftede filer</t>
+    <t>Autosvar vedhæftede e-mails</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Hvis du vil vedhæfte og billeder, skal du uploade dem til galleriet fra 'Tilføj medie'</t>
+    <t>Hvis du vil vedhæfte billeder, skal du uploade dem til galleriet fra 'Tilføj medie'</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>Du har endnu ingen indlæg</t>
+    <t>Du har ingen indlæg endnu</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
@@ -17586,11 +17592,11 @@
   </si>
   <si>
     <t>Sådan skriver du produktbeskrivelser, der sælger
-                                                    En af de bedste ting, du kan gøre for at gøre din butik vellykket, er at bruge lidt tid på at skrive gode produktbeskrivelser. Du vil give detaljerede, men kortfattede oplysninger, der vil lokke potentielle kunder til at købe.
+                                                    En af de bedste ting, du kan gøre for at gøre din butik succesfuld, er at investere lidt tid i at skrive gode produktbeskrivelser. Du ønsker at give detaljerede, men kortfattede oplysninger, der vil lokke potentielle kunder til at købe.
                                                     Tænk som en forbruger
-                                                    Tænk over, hvad du som forbruger vil have at vide, og inkluder derefter disse funktioner i din beskrivelse. Til tøj: materialer og pasform. Til mad: ingredienser og hvordan det blev tilberedt. Kugler er dine venner, når du angiver
-                                                   -funktioner - prøv at
-                                                            begræns hver enkelt til 5-8 ord.</t>
+                                                    Tænk over, hvad du som forbruger gerne vil vide, og medtag derefter disse funktioner i din beskrivelse. Til tøj: materialer og pasform. Til mad: ingredienser og hvordan det blev tilberedt. Punkttegn er dine venner, når du angiver
+                                                   funktioner – prøv at
+                                                            begrænse hver enkelt til 5-8 ord.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17599,328 +17605,253 @@
     <t>Admin sprog</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Tilføj indlæg</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Tilføj underside</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategori slettet</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Indhold slettet</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Søg kategorier</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Opret indhold</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Nogen</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Begrænse</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Du har ingen produkter i</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Tilbage til</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Brugerdefinerede felter gemmes</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Eksisterende felter</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Vælg fra dine eksisterende felter nedenfor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tilføj nye felter</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Tilføj nyt brugerdefineret felt fra listen nedenfor</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Dine marker</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Liste over dine tilføjede brugerdefinerede felter</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Lager</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Browser omdirigering</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Import eksportværktøj</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Uafhængig opdatering</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Forhåndsvisningspakke</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Brug</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Nuværende</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Første klasse</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Klik &amp; Saml</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Video baggrund</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Du kan aktivere Multi-language-modulet for at bruge flere sprog</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Multisprog tilstand</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktiver flersproget tilstand for at have flere sprog til dit indhold.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Oversættelser importeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oversættelser ikke fundet i databasen. Ønsker du at importere oversættelser? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Din vogn er tom.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Kode Editor</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>titler</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Titler 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Titler 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Titler 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Titler 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Titler 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Titler 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Titler 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Titler 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>tekstblok</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Tekstblok 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Tekstblok 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Tekstblok 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Tekstblok 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Tekstblok 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Tekstblok 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Tekstblok 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Tekstblok 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Tekstblok 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Tekstblok 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Tekstblok 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Tekstblok 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Tekstblok 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Tekstblok 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Tekstblok 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>funktioner</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Funktioner 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Funktioner 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Funktioner 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Funktioner 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>gitter</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>sidefødder</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Sidefødder 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Sidefødder 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Sidefødder 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Sidefødder 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>prisfastsættelse</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Pris 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Standard layouts</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Intet indhold her</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Brugerdefinerede felter gemmes</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Eksisterende felter</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Vælg mellem dine eksisterende felter nedenfor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tilføj nye felter</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Tilføj nyt brugerdefineret felt fra listen nedenfor</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Dine marker</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Liste over dine tilføjede brugerdefinerede felter</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Ny import</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -17956,9 +17887,6 @@
     <t>Container type</t>
   </si>
   <si>
-    <t>Containertype</t>
-  </si>
-  <si>
     <t>Animations</t>
   </si>
   <si>
@@ -17969,486 +17897,6 @@
   </si>
   <si>
     <t>Genindlæsning af stilarter</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Links til</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Forhåndsvisningspakke</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Brug</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Nuværende</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Genbestil</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Browser omdirigering</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Uafhængig opdatering</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Du skal bruge en licensnøgle for at installere denne pakke</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Denne pakke er premium, og du skal have en licensnøgle for at installere den</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Du skal bruge licensnøgle</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licens aktiveret</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Genindlæser siden</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Licens ikke aktiveret</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Systemopdateringer</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Se efter systemopdateringer</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Tilbage til listen</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Kategorien skal have et navn</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Er kategori skjult?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Hvis du indstiller dette til JA, vil denne kategori blive skjult fra hjemmesiden</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Omtale</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Din vogn er tom.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Resultater fundet</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Hvis du vælger Procenten fra det valgte felt, vil den automatisk blive beregnet ud fra produktets pris og tilbudspris.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Gå til kassen</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Viser</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>af</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>resultat(er)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Sidetitel - højre brødkrumme</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Sidetitel - venstre brødkrumme</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Vilkår for brug</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Levering og returnering</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Omkring 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Omkring 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Omkring 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Hjem 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Hjem 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Du skal klikke på knappen Anvend skabelon for at ændre din skabelon</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Søg efter kriterier</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Dato fra</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Indstil ordrerne fra dato</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Date til</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Indstil ordrerne til dato</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Ordrebeløb fra</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Vis ordren med minimumsbeløb</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Ordrebeløb til</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Vis ordren med maksimumbeløb</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Søg efter produkter...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Betalingsstatus</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Gratis søgning på telefon, navn, email osv...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Indsend dette kriterium</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Nulstil filter</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Eksporter alt</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Vælg sortering</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Bestillingsdato</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Ny &gt; Gammel]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Gamle &gt; Ny]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Høj &gt; Lav]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Lav &gt; Høj]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Ordren gennemført</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>oversættelser fra flersprogsmodulet er fundet i din database.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Advarsel! Ændring af standardsproget kan ødelægge oversættelser på dit websted.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Er du sikker på, at du vil fortsætte?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Advarsel! Det skiftende standardsprog vil måske ødelægge dit websted.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Forsendelsesdetaljer</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>ordren er ikke afsluttet endnu</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>ordren er gennemført</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Oprettet kl</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Opdateret kl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurtigt kig </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Erstat sprogværdier</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Oversættelser importeres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oversættelser ikke fundet i databasen. Ønsker du at importere oversættelser? </t>
   </si>
 </sst>
 </file>
@@ -18784,7 +18232,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69174,7 +68622,7 @@
         <v>5667</v>
       </c>
       <c r="D2964" t="s">
-        <v>5668</v>
+        <v>1381</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69188,10 +68636,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
+        <v>5668</v>
+      </c>
+      <c r="D2965" t="s">
         <v>5669</v>
-      </c>
-      <c r="D2965" t="s">
-        <v>5670</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69205,10 +68653,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
+        <v>5670</v>
+      </c>
+      <c r="D2966" t="s">
         <v>5671</v>
-      </c>
-      <c r="D2966" t="s">
-        <v>5672</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69222,10 +68670,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
+        <v>5672</v>
+      </c>
+      <c r="D2967" t="s">
         <v>5673</v>
-      </c>
-      <c r="D2967" t="s">
-        <v>5674</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69239,10 +68687,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D2968" t="s">
         <v>5675</v>
-      </c>
-      <c r="D2968" t="s">
-        <v>5676</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69256,10 +68704,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
+        <v>5676</v>
+      </c>
+      <c r="D2969" t="s">
         <v>5677</v>
-      </c>
-      <c r="D2969" t="s">
-        <v>5678</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69273,10 +68721,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
+        <v>5678</v>
+      </c>
+      <c r="D2970" t="s">
         <v>5679</v>
-      </c>
-      <c r="D2970" t="s">
-        <v>5680</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69290,10 +68738,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
+        <v>5680</v>
+      </c>
+      <c r="D2971" t="s">
         <v>5681</v>
-      </c>
-      <c r="D2971" t="s">
-        <v>5682</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69307,10 +68755,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
+        <v>5682</v>
+      </c>
+      <c r="D2972" t="s">
         <v>5683</v>
-      </c>
-      <c r="D2972" t="s">
-        <v>5684</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69324,10 +68772,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
+        <v>5684</v>
+      </c>
+      <c r="D2973" t="s">
         <v>5685</v>
-      </c>
-      <c r="D2973" t="s">
-        <v>5686</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69341,10 +68789,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
+        <v>5686</v>
+      </c>
+      <c r="D2974" t="s">
         <v>5687</v>
-      </c>
-      <c r="D2974" t="s">
-        <v>5688</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69358,10 +68806,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
+        <v>5688</v>
+      </c>
+      <c r="D2975" t="s">
         <v>5689</v>
-      </c>
-      <c r="D2975" t="s">
-        <v>5690</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69375,10 +68823,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
+        <v>5690</v>
+      </c>
+      <c r="D2976" t="s">
         <v>5691</v>
-      </c>
-      <c r="D2976" t="s">
-        <v>5692</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69392,10 +68840,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
+        <v>5692</v>
+      </c>
+      <c r="D2977" t="s">
         <v>5693</v>
-      </c>
-      <c r="D2977" t="s">
-        <v>5694</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69409,10 +68857,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
-        <v>5695</v>
+        <v>5694</v>
       </c>
       <c r="D2978" t="s">
-        <v>5695</v>
+        <v>5694</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69426,10 +68874,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D2979" t="s">
         <v>5696</v>
-      </c>
-      <c r="D2979" t="s">
-        <v>5697</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69443,10 +68891,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D2980" t="s">
         <v>5698</v>
-      </c>
-      <c r="D2980" t="s">
-        <v>5699</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69460,10 +68908,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D2981" t="s">
         <v>5700</v>
-      </c>
-      <c r="D2981" t="s">
-        <v>5701</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69477,10 +68925,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
+        <v>5701</v>
+      </c>
+      <c r="D2982" t="s">
         <v>5702</v>
-      </c>
-      <c r="D2982" t="s">
-        <v>5703</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69494,10 +68942,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D2983" t="s">
         <v>5704</v>
-      </c>
-      <c r="D2983" t="s">
-        <v>3802</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -70058,7 +69506,7 @@
         <v>5767</v>
       </c>
       <c r="D3016" t="s">
-        <v>5768</v>
+        <v>5767</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70072,10 +69520,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D3017" t="s">
         <v>5769</v>
-      </c>
-      <c r="D3017" t="s">
-        <v>3292</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70092,7 +69540,7 @@
         <v>5770</v>
       </c>
       <c r="D3018" t="s">
-        <v>2872</v>
+        <v>5771</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70106,10 +69554,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5771</v>
+        <v>5772</v>
       </c>
       <c r="D3019" t="s">
-        <v>5772</v>
+        <v>5773</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70123,7 +69571,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5773</v>
+        <v>5774</v>
       </c>
       <c r="D3020" t="s">
         <v>1553</v>
@@ -70140,10 +69588,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5774</v>
+        <v>5775</v>
       </c>
       <c r="D3021" t="s">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70157,10 +69605,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
       <c r="D3022" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70174,10 +69622,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5778</v>
+        <v>5779</v>
       </c>
       <c r="D3023" t="s">
-        <v>5779</v>
+        <v>5780</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70191,10 +69639,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="D3024" t="s">
-        <v>5781</v>
+        <v>5782</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70208,10 +69656,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
       <c r="D3025" t="s">
-        <v>5783</v>
+        <v>5784</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70225,10 +69673,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5784</v>
+        <v>5785</v>
       </c>
       <c r="D3026" t="s">
-        <v>5785</v>
+        <v>5786</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70242,10 +69690,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5786</v>
+        <v>5787</v>
       </c>
       <c r="D3027" t="s">
-        <v>5787</v>
+        <v>5788</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70259,10 +69707,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5788</v>
+        <v>5789</v>
       </c>
       <c r="D3028" t="s">
-        <v>5789</v>
+        <v>5790</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70276,10 +69724,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5790</v>
+        <v>5791</v>
       </c>
       <c r="D3029" t="s">
-        <v>5791</v>
+        <v>5792</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70293,10 +69741,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5792</v>
+        <v>5793</v>
       </c>
       <c r="D3030" t="s">
-        <v>5793</v>
+        <v>5794</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70310,7 +69758,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5794</v>
+        <v>5795</v>
       </c>
       <c r="D3031" t="s">
         <v>1109</v>
@@ -70327,10 +69775,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5795</v>
+        <v>5796</v>
       </c>
       <c r="D3032" t="s">
-        <v>5796</v>
+        <v>5797</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70344,10 +69792,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="D3033" t="s">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70361,10 +69809,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="D3034" t="s">
-        <v>5800</v>
+        <v>5801</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70378,10 +69826,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="D3035" t="s">
-        <v>4898</v>
+        <v>5803</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70395,10 +69843,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5802</v>
+        <v>5804</v>
       </c>
       <c r="D3036" t="s">
-        <v>5803</v>
+        <v>5805</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70412,10 +69860,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5804</v>
+        <v>5806</v>
       </c>
       <c r="D3037" t="s">
-        <v>5805</v>
+        <v>5807</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70429,10 +69877,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5806</v>
+        <v>5808</v>
       </c>
       <c r="D3038" t="s">
-        <v>5807</v>
+        <v>5809</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70446,10 +69894,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5808</v>
+        <v>5810</v>
       </c>
       <c r="D3039" t="s">
-        <v>5809</v>
+        <v>5811</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70463,10 +69911,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5810</v>
+        <v>5812</v>
       </c>
       <c r="D3040" t="s">
-        <v>5811</v>
+        <v>5813</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70480,10 +69928,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5812</v>
+        <v>5814</v>
       </c>
       <c r="D3041" t="s">
-        <v>5813</v>
+        <v>5815</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70497,10 +69945,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5814</v>
+        <v>5816</v>
       </c>
       <c r="D3042" t="s">
-        <v>5815</v>
+        <v>5817</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70514,10 +69962,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5816</v>
+        <v>5818</v>
       </c>
       <c r="D3043" t="s">
-        <v>5817</v>
+        <v>5819</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70531,10 +69979,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5818</v>
+        <v>5820</v>
       </c>
       <c r="D3044" t="s">
-        <v>5819</v>
+        <v>5821</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70548,10 +69996,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5820</v>
+        <v>5822</v>
       </c>
       <c r="D3045" t="s">
-        <v>5821</v>
+        <v>5823</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70565,10 +70013,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5822</v>
+        <v>5824</v>
       </c>
       <c r="D3046" t="s">
-        <v>5823</v>
+        <v>5825</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70582,10 +70030,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5824</v>
+        <v>5826</v>
       </c>
       <c r="D3047" t="s">
-        <v>5825</v>
+        <v>1945</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70599,10 +70047,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5826</v>
+        <v>5827</v>
       </c>
       <c r="D3048" t="s">
-        <v>3100</v>
+        <v>5828</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70616,10 +70064,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5827</v>
+        <v>5829</v>
       </c>
       <c r="D3049" t="s">
-        <v>3094</v>
+        <v>805</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70633,7 +70081,7 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5828</v>
+        <v>5830</v>
       </c>
       <c r="D3050" t="s">
         <v>1742</v>
@@ -70650,10 +70098,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5829</v>
+        <v>5831</v>
       </c>
       <c r="D3051" t="s">
-        <v>5830</v>
+        <v>5832</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70667,10 +70115,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5831</v>
+        <v>5833</v>
       </c>
       <c r="D3052" t="s">
-        <v>5832</v>
+        <v>5834</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70684,10 +70132,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5833</v>
+        <v>5835</v>
       </c>
       <c r="D3053" t="s">
-        <v>5834</v>
+        <v>5836</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70701,10 +70149,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5835</v>
+        <v>5837</v>
       </c>
       <c r="D3054" t="s">
-        <v>5836</v>
+        <v>5838</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70718,10 +70166,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5837</v>
+        <v>5839</v>
       </c>
       <c r="D3055" t="s">
-        <v>5838</v>
+        <v>5840</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70735,10 +70183,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5839</v>
+        <v>5841</v>
       </c>
       <c r="D3056" t="s">
-        <v>5840</v>
+        <v>5842</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70752,10 +70200,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5841</v>
+        <v>5843</v>
       </c>
       <c r="D3057" t="s">
-        <v>5842</v>
+        <v>5844</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70769,10 +70217,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5843</v>
+        <v>5845</v>
       </c>
       <c r="D3058" t="s">
-        <v>5844</v>
+        <v>5846</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70786,10 +70234,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5845</v>
+        <v>5847</v>
       </c>
       <c r="D3059" t="s">
-        <v>5846</v>
+        <v>5848</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70803,10 +70251,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5847</v>
+        <v>5849</v>
       </c>
       <c r="D3060" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70820,10 +70268,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5849</v>
+        <v>5851</v>
       </c>
       <c r="D3061" t="s">
-        <v>5850</v>
+        <v>5852</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70834,13 +70282,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5851</v>
+        <v>5853</v>
       </c>
       <c r="C3062" t="s">
-        <v>5852</v>
+        <v>5854</v>
       </c>
       <c r="D3062" t="s">
-        <v>5853</v>
+        <v>5855</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70854,10 +70302,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5854</v>
+        <v>5856</v>
       </c>
       <c r="D3063" t="s">
-        <v>5855</v>
+        <v>5857</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70871,10 +70319,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5856</v>
+        <v>5858</v>
       </c>
       <c r="D3064" t="s">
-        <v>5857</v>
+        <v>5859</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70888,10 +70336,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5858</v>
+        <v>5860</v>
       </c>
       <c r="D3065" t="s">
-        <v>5859</v>
+        <v>5861</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -70905,10 +70353,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5860</v>
+        <v>5862</v>
       </c>
       <c r="D3066" t="s">
-        <v>5860</v>
+        <v>5863</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -70922,10 +70370,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5861</v>
+        <v>5864</v>
       </c>
       <c r="D3067" t="s">
-        <v>5862</v>
+        <v>5865</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -70939,10 +70387,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5863</v>
+        <v>5866</v>
       </c>
       <c r="D3068" t="s">
-        <v>5864</v>
+        <v>5867</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -70956,10 +70404,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5865</v>
+        <v>5868</v>
       </c>
       <c r="D3069" t="s">
-        <v>5866</v>
+        <v>5869</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -70973,10 +70421,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5867</v>
+        <v>5870</v>
       </c>
       <c r="D3070" t="s">
-        <v>5868</v>
+        <v>2429</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -70990,10 +70438,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5869</v>
+        <v>5871</v>
       </c>
       <c r="D3071" t="s">
-        <v>5870</v>
+        <v>5872</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71007,10 +70455,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5871</v>
+        <v>5873</v>
       </c>
       <c r="D3072" t="s">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71024,7 +70472,7 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5873</v>
+        <v>5874</v>
       </c>
       <c r="D3073" t="s">
         <v>5874</v>
@@ -71061,7 +70509,7 @@
         <v>5877</v>
       </c>
       <c r="D3075" t="s">
-        <v>5878</v>
+        <v>1637</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71075,10 +70523,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3076" t="s">
         <v>5879</v>
-      </c>
-      <c r="D3076" t="s">
-        <v>5880</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71092,10 +70540,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3077" t="s">
         <v>5881</v>
-      </c>
-      <c r="D3077" t="s">
-        <v>5882</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71109,10 +70557,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
       <c r="D3078" t="s">
-        <v>5884</v>
+        <v>2118</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71126,10 +70574,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5885</v>
+        <v>5883</v>
       </c>
       <c r="D3079" t="s">
-        <v>5886</v>
+        <v>5884</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71143,10 +70591,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5887</v>
+        <v>5885</v>
       </c>
       <c r="D3080" t="s">
-        <v>5888</v>
+        <v>5886</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71160,10 +70608,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5889</v>
+        <v>5887</v>
       </c>
       <c r="D3081" t="s">
-        <v>5890</v>
+        <v>5888</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71177,10 +70625,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5891</v>
+        <v>5889</v>
       </c>
       <c r="D3082" t="s">
-        <v>5892</v>
+        <v>5890</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71194,10 +70642,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5893</v>
+        <v>5891</v>
       </c>
       <c r="D3083" t="s">
-        <v>5894</v>
+        <v>5892</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71211,10 +70659,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5895</v>
+        <v>5893</v>
       </c>
       <c r="D3084" t="s">
-        <v>5896</v>
+        <v>5894</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71228,10 +70676,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5897</v>
+        <v>5895</v>
       </c>
       <c r="D3085" t="s">
-        <v>5898</v>
+        <v>5896</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71245,10 +70693,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="D3086" t="s">
-        <v>5900</v>
+        <v>5898</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71262,10 +70710,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5901</v>
+        <v>5899</v>
       </c>
       <c r="D3087" t="s">
-        <v>5902</v>
+        <v>5899</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71279,10 +70727,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5903</v>
+        <v>5900</v>
       </c>
       <c r="D3088" t="s">
-        <v>5904</v>
+        <v>5900</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71296,10 +70744,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5905</v>
+        <v>5901</v>
       </c>
       <c r="D3089" t="s">
-        <v>5906</v>
+        <v>5902</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71313,10 +70761,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5907</v>
+        <v>5903</v>
       </c>
       <c r="D3090" t="s">
-        <v>5908</v>
+        <v>5903</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71330,10 +70778,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5909</v>
+        <v>5904</v>
       </c>
       <c r="D3091" t="s">
-        <v>5910</v>
+        <v>5905</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71347,10 +70795,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5911</v>
+        <v>5906</v>
       </c>
       <c r="D3092" t="s">
-        <v>5912</v>
+        <v>5907</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71364,10 +70812,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5913</v>
+        <v>5908</v>
       </c>
       <c r="D3093" t="s">
-        <v>5914</v>
+        <v>5909</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71381,10 +70829,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5915</v>
+        <v>5910</v>
       </c>
       <c r="D3094" t="s">
-        <v>5916</v>
+        <v>5910</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71398,10 +70846,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5917</v>
+        <v>5911</v>
       </c>
       <c r="D3095" t="s">
-        <v>5918</v>
+        <v>5912</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71415,10 +70863,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5919</v>
+        <v>5913</v>
       </c>
       <c r="D3096" t="s">
-        <v>5920</v>
+        <v>5914</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71432,10 +70880,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5921</v>
+        <v>5915</v>
       </c>
       <c r="D3097" t="s">
-        <v>5922</v>
+        <v>5915</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71449,10 +70897,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5923</v>
+        <v>5916</v>
       </c>
       <c r="D3098" t="s">
-        <v>5923</v>
+        <v>5917</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71466,10 +70914,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5924</v>
+        <v>5918</v>
       </c>
       <c r="D3099" t="s">
-        <v>5924</v>
+        <v>5919</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71483,10 +70931,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5925</v>
+        <v>5920</v>
       </c>
       <c r="D3100" t="s">
-        <v>5925</v>
+        <v>5921</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71500,10 +70948,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5926</v>
+        <v>5922</v>
       </c>
       <c r="D3101" t="s">
-        <v>5926</v>
+        <v>1495</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71517,10 +70965,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5927</v>
+        <v>5923</v>
       </c>
       <c r="D3102" t="s">
-        <v>5927</v>
+        <v>5924</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71534,10 +70982,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5928</v>
+        <v>5925</v>
       </c>
       <c r="D3103" t="s">
-        <v>5928</v>
+        <v>5926</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71551,10 +70999,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5929</v>
+        <v>5927</v>
       </c>
       <c r="D3104" t="s">
-        <v>5930</v>
+        <v>5928</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71568,10 +71016,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5931</v>
+        <v>5929</v>
       </c>
       <c r="D3105" t="s">
-        <v>5932</v>
+        <v>5930</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71585,10 +71033,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5933</v>
+        <v>5931</v>
       </c>
       <c r="D3106" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71602,10 +71050,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5935</v>
+        <v>5933</v>
       </c>
       <c r="D3107" t="s">
-        <v>5936</v>
+        <v>5934</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71619,10 +71067,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5937</v>
+        <v>5935</v>
       </c>
       <c r="D3108" t="s">
-        <v>5938</v>
+        <v>5936</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71635,11 +71083,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5939</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>1273</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71652,11 +71100,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5938</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71670,7 +71118,7 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5940</v>
+        <v>5939</v>
       </c>
       <c r="D3111" t="s">
         <v>5940</v>
@@ -71690,7 +71138,7 @@
         <v>5941</v>
       </c>
       <c r="D3112" t="s">
-        <v>5941</v>
+        <v>5942</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71704,10 +71152,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5942</v>
+        <v>5943</v>
       </c>
       <c r="D3113" t="s">
-        <v>5943</v>
+        <v>5944</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71721,10 +71169,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5944</v>
+        <v>5945</v>
       </c>
       <c r="D3114" t="s">
-        <v>5945</v>
+        <v>5946</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71738,10 +71186,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5946</v>
+        <v>5947</v>
       </c>
       <c r="D3115" t="s">
-        <v>5947</v>
+        <v>5948</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71755,10 +71203,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5948</v>
+        <v>5949</v>
       </c>
       <c r="D3116" t="s">
-        <v>5949</v>
+        <v>5950</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71772,7 +71220,7 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5950</v>
+        <v>5951</v>
       </c>
       <c r="D3117" t="s">
         <v>5951</v>
@@ -71812,1672 +71260,6 @@
         <v>5955</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5956</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5957</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5958</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5959</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5960</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5961</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5962</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5963</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5964</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5965</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5966</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5967</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5968</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>5969</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>5970</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>5971</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>5972</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>5973</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>5974</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>5975</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>5976</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>5977</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>5978</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>5979</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>5980</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>5981</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>5982</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>5983</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>5984</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>5984</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>5985</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>5986</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>5987</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>5988</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>5989</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>5990</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>5991</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>5991</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>5992</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>5993</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>5994</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>5994</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>5995</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>5996</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>5997</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>5998</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6000</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6001</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2701</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6010</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6011</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6012</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6013</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6014</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6015</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6016</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6017</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6018</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6019</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6021</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6022</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6023</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6026</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5851</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6028</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6031</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6032</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6033</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6032</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6034</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6035</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6036</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1796</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>3925</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6098</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6099</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6110</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6116</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6117</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6121</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4305</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6125</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6136</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6137</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6139</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
